--- a/output/fit_clients/fit_round_303.xlsx
+++ b/output/fit_clients/fit_round_303.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2155898227.572069</v>
+        <v>1605165245.635171</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07316875613748713</v>
+        <v>0.06961642697930787</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03579767977220674</v>
+        <v>0.04550370168463878</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1077949130.393307</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1597346285.634079</v>
+        <v>1653808271.234483</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1330029203565838</v>
+        <v>0.1812605176275832</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03945158475847798</v>
+        <v>0.05031501424599171</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7</v>
-      </c>
-      <c r="J3" t="n">
-        <v>798673120.5198927</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5053563191.199287</v>
+        <v>4404076876.819572</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1235138657613623</v>
+        <v>0.1280867563772053</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03658852491175122</v>
+        <v>0.03535387490027906</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>109</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2526781684.423332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3956764904.818086</v>
+        <v>2584863373.849843</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1104327000944563</v>
+        <v>0.07924095243599652</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03812174668060221</v>
+        <v>0.03942804141313037</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>112</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1978382458.986868</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2028648057.071147</v>
+        <v>2872303812.811959</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1161866174899295</v>
+        <v>0.1039542284688558</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04324898490692075</v>
+        <v>0.03776520957448081</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>57</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1014324055.031832</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3098333495.32565</v>
+        <v>2525178542.856731</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08971874683672047</v>
+        <v>0.06310117320944493</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03519920533071685</v>
+        <v>0.04224213045623441</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>95</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1549166703.065117</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3170684799.864307</v>
+        <v>3277384297.571826</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1862718820478275</v>
+        <v>0.1354457562242126</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02896994773986424</v>
+        <v>0.02632245241026348</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>96</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1585342474.897648</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1896157468.176278</v>
+        <v>1736442357.318934</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1741964468010462</v>
+        <v>0.1767345682430395</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02568242701033024</v>
+        <v>0.0296406233942172</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>948078775.1143959</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4762953056.66283</v>
+        <v>5845159710.778776</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1329230553930897</v>
+        <v>0.2136013678341972</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0328672057995927</v>
+        <v>0.0526394618898508</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>127</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2381476609.296901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2805757025.869046</v>
+        <v>3342135996.349634</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1589979003721578</v>
+        <v>0.169149385074341</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04492738732101306</v>
+        <v>0.03106630589754513</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>125</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1402878442.378182</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2012275078.382713</v>
+        <v>2800714891.426447</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1586927523035159</v>
+        <v>0.1980805063445008</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0453420092499737</v>
+        <v>0.04851222308217628</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>104</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1006137466.757134</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3872997797.61751</v>
+        <v>3532687918.079946</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1007273703769484</v>
+        <v>0.09183945385324226</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02003897467859845</v>
+        <v>0.01922867774128459</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>102</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1936498960.195094</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3832293595.652086</v>
+        <v>3672085949.504443</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1236573603314637</v>
+        <v>0.142083523970842</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02825658297191126</v>
+        <v>0.0367327991827404</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>99</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1916146771.997815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1272079181.406027</v>
+        <v>1244037264.659287</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09936959045418686</v>
+        <v>0.1062947915306022</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03258405126261682</v>
+        <v>0.03145769900492738</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>636039624.5300138</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1811710601.137953</v>
+        <v>2019693805.152485</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1047286333976038</v>
+        <v>0.1129387321243074</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03792207141149341</v>
+        <v>0.04524549479927548</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>59</v>
-      </c>
-      <c r="J16" t="n">
-        <v>905855392.8709255</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5131062337.378416</v>
+        <v>4906383126.181985</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1314704003444956</v>
+        <v>0.1120639669374406</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05317234239233843</v>
+        <v>0.03468437942811214</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>88</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2565531147.33659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2609370527.823893</v>
+        <v>3437992080.863507</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1499830507379114</v>
+        <v>0.1220069306222552</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0222697072601712</v>
+        <v>0.03229976990146552</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>99</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1304685322.508559</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1060328131.712095</v>
+        <v>860538766.8115897</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1538170268386019</v>
+        <v>0.1889073004554641</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02466725218747297</v>
+        <v>0.02387058932700328</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>530164109.7708049</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2035483277.618917</v>
+        <v>2318390949.521619</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1372308989460373</v>
+        <v>0.1511580995042131</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03154850653947608</v>
+        <v>0.02383193130706136</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>43</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1017741661.363885</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2076890419.808928</v>
+        <v>2494273534.821126</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07214439016622622</v>
+        <v>0.09889239372273272</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03616212159490918</v>
+        <v>0.0424943045766932</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>25</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1038445238.523511</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2691556279.401759</v>
+        <v>3422661744.797122</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1352800021811261</v>
+        <v>0.1143399371873699</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05006857681099613</v>
+        <v>0.03667219809508732</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>84</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1345778219.707189</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1097352391.101326</v>
+        <v>1296780215.798221</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1319490892868397</v>
+        <v>0.1529106044830055</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0418839124294225</v>
+        <v>0.04729364880542609</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>548676249.3362565</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3665530530.607009</v>
+        <v>3964739413.648804</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1158012167689697</v>
+        <v>0.1042666643619609</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02373503933685873</v>
+        <v>0.02540277648369058</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>88</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1832765255.774727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1471821039.96248</v>
+        <v>1446528984.602195</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1146937703027571</v>
+        <v>0.1192561537633897</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01878389785656373</v>
+        <v>0.03014932977993772</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>735910475.4062575</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1453038464.635307</v>
+        <v>1133518314.238734</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08183211122917479</v>
+        <v>0.1177370382876071</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03547172529619144</v>
+        <v>0.03378035825448885</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>726519315.2538419</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4062724272.836931</v>
+        <v>3794506163.292076</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1387966353222257</v>
+        <v>0.1200249570630496</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01653517450864559</v>
+        <v>0.02266826471708933</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>68</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2031362143.442773</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3196970559.674336</v>
+        <v>2911157441.725816</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1489897289003052</v>
+        <v>0.1306801121785673</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03347017965786859</v>
+        <v>0.03581038314157684</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>98</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1598485308.153154</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4354166444.635277</v>
+        <v>5752782822.039005</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1365184679502109</v>
+        <v>0.1083699895247468</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03526891327081112</v>
+        <v>0.03341473461934086</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>134</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2177083214.673101</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1972139342.220348</v>
+        <v>1796781254.126343</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09322000176823536</v>
+        <v>0.1348035729911264</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03037115785438201</v>
+        <v>0.02863974634037542</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>986069705.3823173</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1141581386.323815</v>
+        <v>1407085909.710733</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09486103253289879</v>
+        <v>0.07750834427700956</v>
       </c>
       <c r="G31" t="n">
-        <v>0.051001124294684</v>
+        <v>0.05170482399228516</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>570790658.369457</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1425333353.008402</v>
+        <v>1789400893.953743</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09942847248428609</v>
+        <v>0.120377701013475</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03713921437303717</v>
+        <v>0.02530120531927178</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>712666729.3997165</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2246504659.771596</v>
+        <v>2266938355.146584</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1518213394213483</v>
+        <v>0.2065440703266127</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06030727999420715</v>
+        <v>0.05711905869141529</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>89</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1123252389.675545</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1472061641.642616</v>
+        <v>1361179242.813516</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08353028591924239</v>
+        <v>0.07941498962724518</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01916387310267744</v>
+        <v>0.02621360855531023</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>736030781.2323869</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1033823945.539097</v>
+        <v>1104315506.75008</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09448838255968307</v>
+        <v>0.1043557535589564</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03193301720064336</v>
+        <v>0.03045600632787211</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>516911983.9346142</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2626277726.379675</v>
+        <v>2506554873.117999</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1613106708742615</v>
+        <v>0.1666613897954768</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0287719500167605</v>
+        <v>0.02137704988537116</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>76</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1313138875.050733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2347378170.53765</v>
+        <v>2893966134.43439</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1052851861004432</v>
+        <v>0.1029463734949061</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03639887768630715</v>
+        <v>0.04063517326121651</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>79</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1173689160.343336</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1573305248.952007</v>
+        <v>1666304069.566011</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1092014458531552</v>
+        <v>0.07414276785276878</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02816671988627293</v>
+        <v>0.02547646386203834</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>786652663.3795007</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1637092590.544055</v>
+        <v>1963002460.071171</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1391440646783126</v>
+        <v>0.1932249110663255</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0290480367591712</v>
+        <v>0.03180062496100797</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>818546344.9057233</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1315573189.533269</v>
+        <v>1313724425.764397</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1341220152898868</v>
+        <v>0.1359717366114421</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04725923516548961</v>
+        <v>0.04309916555593736</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>657786607.1400896</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2362129125.802248</v>
+        <v>2597480646.092167</v>
       </c>
       <c r="F41" t="n">
-        <v>0.163775342624001</v>
+        <v>0.1036129416228176</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04384117652798867</v>
+        <v>0.0429215787056311</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>75</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1181064601.642473</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3410845795.39523</v>
+        <v>3657588897.103696</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07925710742035913</v>
+        <v>0.08684546031749039</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0425368832518368</v>
+        <v>0.03737974655770634</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>104</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1705422886.422311</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2248039329.879355</v>
+        <v>2087281116.201501</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1394003399945435</v>
+        <v>0.1402288074185442</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0181370051469056</v>
+        <v>0.02085277637646063</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>110</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1124019738.94769</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1669859098.786502</v>
+        <v>1515620369.655877</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06785190211476617</v>
+        <v>0.07620252783063154</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02344689699787098</v>
+        <v>0.0353488011155522</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>834929589.8636134</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1888378914.558776</v>
+        <v>1952552566.802155</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1759852372561619</v>
+        <v>0.1858159087354969</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03999470347758799</v>
+        <v>0.03730313060332121</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>944189436.8738393</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5380825177.170616</v>
+        <v>4174256943.905668</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1695706684003547</v>
+        <v>0.1361760343278124</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04897626213832469</v>
+        <v>0.05379716844498742</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>108</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2690412637.188106</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4938729505.040693</v>
+        <v>4384773486.317028</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1306431976394791</v>
+        <v>0.1544979691345581</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03649194943516747</v>
+        <v>0.04034108338942038</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>81</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2469364804.850568</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4403066518.820929</v>
+        <v>3099792711.199441</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07435882571809477</v>
+        <v>0.09070858306284078</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02829665907032259</v>
+        <v>0.03601993238029562</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>99</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2201533270.354353</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1721229287.456383</v>
+        <v>1882431228.339025</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1964468589191975</v>
+        <v>0.1651431485108406</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04420651654848803</v>
+        <v>0.03239238796950884</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>860614641.362933</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3375452915.580812</v>
+        <v>2725972674.743313</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1656788427456423</v>
+        <v>0.1190848626339813</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03686248028581514</v>
+        <v>0.03442850991218038</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>103</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1687726490.904723</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1105456931.130154</v>
+        <v>1043750979.217481</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1937689778547427</v>
+        <v>0.1790234523655971</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04460908685026238</v>
+        <v>0.0327785946086905</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>552728532.4435881</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3706004620.11299</v>
+        <v>3761796792.896478</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1031540988319418</v>
+        <v>0.08533919273656508</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04506765620577755</v>
+        <v>0.04199926929805684</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>125</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1853002383.841028</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2891103375.849474</v>
+        <v>3326761743.571758</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1593963702282624</v>
+        <v>0.1448734230469124</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02760970609633178</v>
+        <v>0.02346569527877734</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>86</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1445551727.909127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3296475552.000945</v>
+        <v>3697216990.823616</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1279866847647524</v>
+        <v>0.1178684254261892</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04863922681006317</v>
+        <v>0.03427444214883529</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>99</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1648237784.841393</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4691755283.679102</v>
+        <v>3411354668.92413</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1388732335684809</v>
+        <v>0.1739353920534796</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02460198351337656</v>
+        <v>0.02989864689899805</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>90</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2345877647.30445</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1591593024.36307</v>
+        <v>1872003518.518175</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1416025311859704</v>
+        <v>0.1213536964323758</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03596421515568765</v>
+        <v>0.04057993798988594</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>795796540.8801167</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3927079749.767334</v>
+        <v>4283272261.194766</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1752359176001968</v>
+        <v>0.1702169026221386</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01760464705665988</v>
+        <v>0.02737976028722114</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>96</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1963539957.132003</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1371777810.125612</v>
+        <v>1574557801.065121</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1413597004325019</v>
+        <v>0.1764040554950934</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02594288992777286</v>
+        <v>0.03931921930658501</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>685888947.8911784</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4588989621.363628</v>
+        <v>4381368351.655503</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1305919238845884</v>
+        <v>0.1113355100795956</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03354307245027572</v>
+        <v>0.04924132399727161</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>85</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2294494758.225303</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2356520627.705246</v>
+        <v>3687632843.172091</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1299528618097738</v>
+        <v>0.1695733820995244</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02191248333500474</v>
+        <v>0.03204466050866988</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>94</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1178260316.704966</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3087664774.827367</v>
+        <v>3266223277.417622</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1267611112451219</v>
+        <v>0.1094800869838113</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02036295002113371</v>
+        <v>0.0202856078018272</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>104</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1543832359.614751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1580049504.919251</v>
+        <v>2054486351.639435</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1324176186394874</v>
+        <v>0.1673168468350769</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03602823287519924</v>
+        <v>0.04714288749319781</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>790024747.5259746</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5160546480.247039</v>
+        <v>4041456101.767388</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09178964373967539</v>
+        <v>0.1056581479033277</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0314758640302065</v>
+        <v>0.04772805930597339</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>87</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2580273250.74506</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3978319310.616472</v>
+        <v>3484035010.852964</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1832201480848631</v>
+        <v>0.1199234489553583</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03445050548284832</v>
+        <v>0.02826665171416479</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>94</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1989159689.648154</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5339914277.141691</v>
+        <v>4041056540.266446</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1714649735864104</v>
+        <v>0.1122248029972665</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02632786480694491</v>
+        <v>0.02803452658789513</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>108</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2669957077.198472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4620382540.89086</v>
+        <v>3842604041.569868</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1156549461274251</v>
+        <v>0.1186391992957711</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04764949689632899</v>
+        <v>0.03220995509232502</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>88</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2310191277.241049</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2462815895.636599</v>
+        <v>2202859428.151557</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07770143875139897</v>
+        <v>0.08606485605462992</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03449258099430604</v>
+        <v>0.04657034629822427</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>97</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1231408011.597046</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3890482139.800238</v>
+        <v>5460126906.685983</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1472250138886712</v>
+        <v>0.1532159508495534</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04289608497381092</v>
+        <v>0.0319738934261436</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>97</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1945241059.060918</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1681663521.191762</v>
+        <v>1671293963.055074</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1459537302273639</v>
+        <v>0.1671594171474905</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05331010165220323</v>
+        <v>0.05455462841052506</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>840831724.3797897</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3662563235.376701</v>
+        <v>3560146714.143286</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07594591444937022</v>
+        <v>0.06213866722891212</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0355694290635918</v>
+        <v>0.0321815975972361</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>86</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1831281637.809052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4848976605.332705</v>
+        <v>4120967853.78722</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1263560119169641</v>
+        <v>0.1549241432434471</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03131177120542297</v>
+        <v>0.03272493770575174</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>111</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2424488397.10047</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2151827421.269139</v>
+        <v>1510689974.497779</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08823431310899811</v>
+        <v>0.1023666728026484</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04032419306516453</v>
+        <v>0.03596117554605455</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1075913632.464947</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2957008023.364568</v>
+        <v>3414441029.019802</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08425204400593733</v>
+        <v>0.111045063697257</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04838910924489323</v>
+        <v>0.04717949350699853</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>116</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1478504011.600952</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3868137011.659754</v>
+        <v>2665961033.708774</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1419766735537914</v>
+        <v>0.1649905984983941</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0214365445767817</v>
+        <v>0.0303624764468466</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>103</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1934068496.144692</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2088338768.205805</v>
+        <v>1570577686.81429</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1336110973185005</v>
+        <v>0.1376795815828074</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03417029603076718</v>
+        <v>0.02493093185067338</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1044169340.071047</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4142682486.67146</v>
+        <v>5301231013.287477</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1134407509055563</v>
+        <v>0.1167085371651093</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02405613496313642</v>
+        <v>0.03254539981276298</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>76</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2071341234.008843</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1796274280.178183</v>
+        <v>2274931961.962705</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1264779631584487</v>
+        <v>0.1254046047742086</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02604597971583992</v>
+        <v>0.02137373534746408</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>898137171.525072</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3540347523.949597</v>
+        <v>3928774748.022778</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1280775949346916</v>
+        <v>0.09009498693484774</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04931001890704562</v>
+        <v>0.04413048964773378</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>105</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1770173760.597401</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1476436679.260446</v>
+        <v>1348394129.960152</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1596179896426132</v>
+        <v>0.1427397037027325</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02955461058111397</v>
+        <v>0.03718665072986098</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>738218369.7157977</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4763547522.346011</v>
+        <v>4924419180.881769</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08589005071803829</v>
+        <v>0.09017534940933722</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02710774996205734</v>
+        <v>0.03792556244241444</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>63</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2381773798.619901</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4408115738.854882</v>
+        <v>4053925920.249911</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1167137802139168</v>
+        <v>0.1158257126184225</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02685755126982006</v>
+        <v>0.03047300309184649</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>71</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2204057847.799382</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4132854851.764359</v>
+        <v>4788881977.016353</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1924383859829814</v>
+        <v>0.2162424810748028</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01831396573526268</v>
+        <v>0.02073340131962213</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>106</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2066427458.235723</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2355935783.906952</v>
+        <v>2009144797.113896</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1473777255576245</v>
+        <v>0.1238854105314369</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0434825179374561</v>
+        <v>0.03158535062250149</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1177967921.59856</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2428390767.071144</v>
+        <v>2068845224.587297</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07493335973969208</v>
+        <v>0.08187496003875677</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04308731108638551</v>
+        <v>0.05023431168142223</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>3</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1214195325.783266</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3321475179.902076</v>
+        <v>3332587178.672599</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1676556353743333</v>
+        <v>0.1544031315437839</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0502765577106972</v>
+        <v>0.03759614934202085</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>114</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1660737685.61455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1812904682.061053</v>
+        <v>2366451129.065817</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1403872302916115</v>
+        <v>0.1321779884554925</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01661229621999696</v>
+        <v>0.02268356853115462</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>41</v>
-      </c>
-      <c r="J86" t="n">
-        <v>906452342.6456239</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1238634936.419685</v>
+        <v>1007172719.075427</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1666115694872519</v>
+        <v>0.1867223066243849</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03754682201231759</v>
+        <v>0.03537726744854904</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>619317533.7138224</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3634399894.682634</v>
+        <v>2277347771.398809</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1644529574117403</v>
+        <v>0.1553591911958092</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03809139091646946</v>
+        <v>0.02687968886109716</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>120</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1817200040.480293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2196446505.030742</v>
+        <v>3461673334.514057</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1326490696171761</v>
+        <v>0.159050245883139</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03381060507213323</v>
+        <v>0.02956657674232671</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>103</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1098223349.526689</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1961136848.091428</v>
+        <v>2136814559.266273</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1283582439505885</v>
+        <v>0.1330612471217337</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04145961057073621</v>
+        <v>0.0482248590526411</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>980568487.2149385</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1411946000.241349</v>
+        <v>1526794363.449228</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1859937153248159</v>
+        <v>0.1731843728553633</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05913602458945241</v>
+        <v>0.03853497454720031</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>705973050.7682993</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2720290679.403142</v>
+        <v>2594912954.592118</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1031843277097638</v>
+        <v>0.07025903584353482</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02891789845262968</v>
+        <v>0.03341259132982174</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>77</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1360145340.287693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3215809822.087074</v>
+        <v>4135191872.000326</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0983976721711729</v>
+        <v>0.1104779395298837</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04179641178379333</v>
+        <v>0.04859779357467837</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>91</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1607904962.378788</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1574261097.86252</v>
+        <v>1622214306.147321</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1097096908785014</v>
+        <v>0.1252889784458804</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03402924049820624</v>
+        <v>0.03215610929078204</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>787130491.8386545</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2400309910.927153</v>
+        <v>2616625031.529249</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1019628815053778</v>
+        <v>0.09796853820706272</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03545341265084254</v>
+        <v>0.04015746517506186</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>73</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1200154998.812077</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1484084849.098486</v>
+        <v>1964409663.458205</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1302095653262672</v>
+        <v>0.1132947212839635</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04384913673657611</v>
+        <v>0.03812063962772876</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>742042466.5989814</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3715248239.127575</v>
+        <v>4081737623.867504</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1566638879838151</v>
+        <v>0.1184978406740547</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02871438666243043</v>
+        <v>0.02060235032683815</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>98</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1857624153.041684</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3633854687.844135</v>
+        <v>3006317783.6516</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1092429046743647</v>
+        <v>0.1137527542426053</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02851858960366002</v>
+        <v>0.02392229185659575</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>80</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1816927371.635887</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3132385259.014759</v>
+        <v>3065373757.255627</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1029670361869917</v>
+        <v>0.1404613014054461</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03484692543255013</v>
+        <v>0.03224296517047955</v>
       </c>
       <c r="H99" t="b">
         <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>96</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1566192625.023676</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4172278383.248185</v>
+        <v>2966749744.400115</v>
       </c>
       <c r="F100" t="n">
-        <v>0.145345837830338</v>
+        <v>0.1787145905761796</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01804833941349183</v>
+        <v>0.0252042994491873</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>92</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2086139276.054562</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3280252176.992775</v>
+        <v>2447643261.715168</v>
       </c>
       <c r="F101" t="n">
-        <v>0.151299935447557</v>
+        <v>0.191156961137956</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04904083611347088</v>
+        <v>0.03622664307849794</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>120</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1640126214.565268</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_303.xlsx
+++ b/output/fit_clients/fit_round_303.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1605165245.635171</v>
+        <v>2329805431.083638</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06961642697930787</v>
+        <v>0.1091628071221952</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04550370168463878</v>
+        <v>0.03601987400320453</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1653808271.234483</v>
+        <v>1929570090.813042</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1812605176275832</v>
+        <v>0.1170374508419172</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05031501424599171</v>
+        <v>0.03532175015359308</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4404076876.819572</v>
+        <v>4091526178.359506</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1280867563772053</v>
+        <v>0.131048268484944</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03535387490027906</v>
+        <v>0.03564457462235254</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2584863373.849843</v>
+        <v>3527540940.848609</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07924095243599652</v>
+        <v>0.09702548297686339</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03942804141313037</v>
+        <v>0.03883343874056507</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2872303812.811959</v>
+        <v>2696521235.750499</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1039542284688558</v>
+        <v>0.1043493052206864</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03776520957448081</v>
+        <v>0.04699408496153809</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2525178542.856731</v>
+        <v>3082001583.061292</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06310117320944493</v>
+        <v>0.06579079429359462</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04224213045623441</v>
+        <v>0.04641228528351206</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3277384297.571826</v>
+        <v>2646430329.71604</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1354457562242126</v>
+        <v>0.1576734922525419</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02632245241026348</v>
+        <v>0.02134975823508868</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1736442357.318934</v>
+        <v>2187697769.336875</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1767345682430395</v>
+        <v>0.1540342428768024</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0296406233942172</v>
+        <v>0.02944462079275989</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5845159710.778776</v>
+        <v>5022284607.104964</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2136013678341972</v>
+        <v>0.1824951995348467</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0526394618898508</v>
+        <v>0.04201787725448258</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3342135996.349634</v>
+        <v>4145527900.089573</v>
       </c>
       <c r="F11" t="n">
-        <v>0.169149385074341</v>
+        <v>0.1408373650915681</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03106630589754513</v>
+        <v>0.04813986180448923</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2800714891.426447</v>
+        <v>2464859521.081561</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1980805063445008</v>
+        <v>0.1772144525473641</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04851222308217628</v>
+        <v>0.04604026060142418</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3532687918.079946</v>
+        <v>3524410128.801493</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09183945385324226</v>
+        <v>0.06253011422697226</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01922867774128459</v>
+        <v>0.02334070031351964</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3672085949.504443</v>
+        <v>2812834839.867084</v>
       </c>
       <c r="F14" t="n">
-        <v>0.142083523970842</v>
+        <v>0.1731013543444005</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0367327991827404</v>
+        <v>0.03325458788321103</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1244037264.659287</v>
+        <v>1149185016.651011</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1062947915306022</v>
+        <v>0.0943519448123231</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03145769900492738</v>
+        <v>0.04434309480421845</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2019693805.152485</v>
+        <v>2820470295.888151</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1129387321243074</v>
+        <v>0.07652910810636047</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04524549479927548</v>
+        <v>0.03151557481598589</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4906383126.181985</v>
+        <v>4180112578.425591</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1120639669374406</v>
+        <v>0.1089445496086055</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03468437942811214</v>
+        <v>0.03807511978649804</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3437992080.863507</v>
+        <v>3662879253.988405</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1220069306222552</v>
+        <v>0.1381518936014657</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03229976990146552</v>
+        <v>0.03210531257926527</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>860538766.8115897</v>
+        <v>1099975866.592525</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1889073004554641</v>
+        <v>0.1221402608129395</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02387058932700328</v>
+        <v>0.02469601450973445</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2318390949.521619</v>
+        <v>1870863959.187776</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1511580995042131</v>
+        <v>0.1606283653398543</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02383193130706136</v>
+        <v>0.03105971783848088</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2494273534.821126</v>
+        <v>1933854817.116658</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09889239372273272</v>
+        <v>0.08636611297923326</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0424943045766932</v>
+        <v>0.03908000143979697</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3422661744.797122</v>
+        <v>3298366538.266074</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1143399371873699</v>
+        <v>0.08740687309383589</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03667219809508732</v>
+        <v>0.05094624949202291</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1296780215.798221</v>
+        <v>1268908947.821754</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1529106044830055</v>
+        <v>0.1724631153164539</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04729364880542609</v>
+        <v>0.04680018684669574</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3964739413.648804</v>
+        <v>2821529266.271883</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1042666643619609</v>
+        <v>0.127357455186808</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02540277648369058</v>
+        <v>0.0230266131790292</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1446528984.602195</v>
+        <v>1134984097.204579</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1192561537633897</v>
+        <v>0.07843914034394525</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03014932977993772</v>
+        <v>0.03067253929581826</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1133518314.238734</v>
+        <v>1034377050.145054</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1177370382876071</v>
+        <v>0.1099001180142291</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03378035825448885</v>
+        <v>0.0318145549375317</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3794506163.292076</v>
+        <v>3487060644.575418</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1200249570630496</v>
+        <v>0.1031523127357078</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02266826471708933</v>
+        <v>0.01699422300703519</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2911157441.725816</v>
+        <v>3851507495.987765</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1306801121785673</v>
+        <v>0.1208826871030366</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03581038314157684</v>
+        <v>0.04317122106479709</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5752782822.039005</v>
+        <v>4641140844.869037</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1083699895247468</v>
+        <v>0.1422777937300254</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03341473461934086</v>
+        <v>0.04654922884647225</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,16 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1796781254.126343</v>
+        <v>2056507003.598266</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1348035729911264</v>
+        <v>0.1115253400399353</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02863974634037542</v>
+        <v>0.03572489994423705</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1407085909.710733</v>
+        <v>1376761504.407296</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07750834427700956</v>
+        <v>0.08453220238067828</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05170482399228516</v>
+        <v>0.04055299474369801</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1789400893.953743</v>
+        <v>1584826122.846764</v>
       </c>
       <c r="F32" t="n">
-        <v>0.120377701013475</v>
+        <v>0.1025550494367787</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02530120531927178</v>
+        <v>0.02749049992295143</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1354,16 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2266938355.146584</v>
+        <v>2371433738.478725</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2065440703266127</v>
+        <v>0.1423672134683581</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05711905869141529</v>
+        <v>0.04180337271372411</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1361179242.813516</v>
+        <v>1268718199.512218</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07941498962724518</v>
+        <v>0.08151640716245348</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02621360855531023</v>
+        <v>0.02140655934854947</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1104315506.75008</v>
+        <v>1224518564.628987</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1043557535589564</v>
+        <v>0.09905622687152883</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03045600632787211</v>
+        <v>0.03379406748991802</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2506554873.117999</v>
+        <v>2964256906.93395</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1666613897954768</v>
+        <v>0.1579524144519475</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02137704988537116</v>
+        <v>0.02157111253304556</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2893966134.43439</v>
+        <v>2694797350.468124</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1029463734949061</v>
+        <v>0.07697337242373163</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04063517326121651</v>
+        <v>0.02689401719460466</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1666304069.566011</v>
+        <v>2143648649.158787</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07414276785276878</v>
+        <v>0.1127512280458562</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02547646386203834</v>
+        <v>0.03441566472641829</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1963002460.071171</v>
+        <v>2060445568.768502</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1932249110663255</v>
+        <v>0.1366187291085298</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03180062496100797</v>
+        <v>0.03123446888718528</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1313724425.764397</v>
+        <v>1152858371.548</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1359717366114421</v>
+        <v>0.1542263807974005</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04309916555593736</v>
+        <v>0.04178267249110768</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2597480646.092167</v>
+        <v>2091031116.20151</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1036129416228176</v>
+        <v>0.1549514203086702</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0429215787056311</v>
+        <v>0.02893613115483111</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3657588897.103696</v>
+        <v>3679477339.561567</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08684546031749039</v>
+        <v>0.1135148561526682</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03737974655770634</v>
+        <v>0.03051197461039351</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2087281116.201501</v>
+        <v>1999751968.691417</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1402288074185442</v>
+        <v>0.1539862467654605</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02085277637646063</v>
+        <v>0.0248428039320464</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1515620369.655877</v>
+        <v>2265263255.642403</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07620252783063154</v>
+        <v>0.0947765116858429</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0353488011155522</v>
+        <v>0.02688605755661794</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1952552566.802155</v>
+        <v>2231998588.00687</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1858159087354969</v>
+        <v>0.1709254373709246</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03730313060332121</v>
+        <v>0.03459999180325288</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4174256943.905668</v>
+        <v>3465496810.685074</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1361760343278124</v>
+        <v>0.1537724772352441</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05379716844498742</v>
+        <v>0.05424539618646904</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4384773486.317028</v>
+        <v>4804251992.268409</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1544979691345581</v>
+        <v>0.1345929470399757</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04034108338942038</v>
+        <v>0.04768096566574986</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3099792711.199441</v>
+        <v>3169122007.385667</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09070858306284078</v>
+        <v>0.08456802429965039</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03601993238029562</v>
+        <v>0.02951243976122626</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1882431228.339025</v>
+        <v>1318819061.886859</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1651431485108406</v>
+        <v>0.1214328786159488</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03239238796950884</v>
+        <v>0.04059983742492991</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2725972674.743313</v>
+        <v>2594639421.868741</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1190848626339813</v>
+        <v>0.107888351785849</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03442850991218038</v>
+        <v>0.04716357284865685</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1043750979.217481</v>
+        <v>1326748807.621768</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1790234523655971</v>
+        <v>0.17593202224949</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0327785946086905</v>
+        <v>0.04571639081544612</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3761796792.896478</v>
+        <v>3205667262.757495</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08533919273656508</v>
+        <v>0.08846233744278473</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04199926929805684</v>
+        <v>0.04863082696735891</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3326761743.571758</v>
+        <v>2987648875.369991</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1448734230469124</v>
+        <v>0.1916821223562072</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02346569527877734</v>
+        <v>0.02499418629219843</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3697216990.823616</v>
+        <v>3883057309.918242</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1178684254261892</v>
+        <v>0.1269143068882715</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03427444214883529</v>
+        <v>0.04121406281336232</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1970,13 +1970,13 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3411354668.92413</v>
+        <v>3111751492.694926</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1739353920534796</v>
+        <v>0.1433480472288726</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02989864689899805</v>
+        <v>0.02538007583003076</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1872003518.518175</v>
+        <v>1393820392.891763</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1213536964323758</v>
+        <v>0.1103978525605516</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04057993798988594</v>
+        <v>0.05251918568492737</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4283272261.194766</v>
+        <v>4190881510.601013</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1702169026221386</v>
+        <v>0.1451003575995774</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02737976028722114</v>
+        <v>0.01867423808753141</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1574557801.065121</v>
+        <v>1336784092.801578</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1764040554950934</v>
+        <v>0.1716678350223346</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03931921930658501</v>
+        <v>0.02840697209579158</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4381368351.655503</v>
+        <v>4545842717.50784</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1113355100795956</v>
+        <v>0.08564978892454971</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04924132399727161</v>
+        <v>0.04870153905669138</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3687632843.172091</v>
+        <v>3139480053.44894</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1695733820995244</v>
+        <v>0.1440309397739332</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03204466050866988</v>
+        <v>0.03003761354586313</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3266223277.417622</v>
+        <v>2457637313.529574</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1094800869838113</v>
+        <v>0.1241957788327782</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0202856078018272</v>
+        <v>0.02909276023706828</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2054486351.639435</v>
+        <v>1907190761.473616</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1673168468350769</v>
+        <v>0.1218136551439355</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04714288749319781</v>
+        <v>0.03051776971353787</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4041456101.767388</v>
+        <v>5038264810.12209</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1056581479033277</v>
+        <v>0.08633602272929909</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04772805930597339</v>
+        <v>0.03890121171232334</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3484035010.852964</v>
+        <v>5133539627.258622</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1199234489553583</v>
+        <v>0.1359748963800147</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02826665171416479</v>
+        <v>0.02927719865072171</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4041056540.266446</v>
+        <v>3867821010.175943</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1122248029972665</v>
+        <v>0.1724289645100922</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02803452658789513</v>
+        <v>0.02490760172142329</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3842604041.569868</v>
+        <v>3949920187.635527</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1186391992957711</v>
+        <v>0.1512809137563982</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03220995509232502</v>
+        <v>0.04193564593737936</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2202859428.151557</v>
+        <v>2557493894.699233</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08606485605462992</v>
+        <v>0.09789484882865729</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04657034629822427</v>
+        <v>0.0429796200620683</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5460126906.685983</v>
+        <v>5868012650.718567</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1532159508495534</v>
+        <v>0.1175294620507356</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0319738934261436</v>
+        <v>0.04274098155488808</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,16 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1671293963.055074</v>
+        <v>2337560900.80672</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1671594171474905</v>
+        <v>0.114543178706081</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05455462841052506</v>
+        <v>0.04868991380836009</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3560146714.143286</v>
+        <v>3531177120.180459</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06213866722891212</v>
+        <v>0.06549556874364783</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0321815975972361</v>
+        <v>0.040720625238602</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4120967853.78722</v>
+        <v>4319754854.280964</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1549241432434471</v>
+        <v>0.1513563979893515</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03272493770575174</v>
+        <v>0.02652797056478339</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,16 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1510689974.497779</v>
+        <v>1821972003.907172</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1023666728026484</v>
+        <v>0.08517000299052997</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03596117554605455</v>
+        <v>0.04310317583022196</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3414441029.019802</v>
+        <v>3470253093.083586</v>
       </c>
       <c r="F73" t="n">
-        <v>0.111045063697257</v>
+        <v>0.1097325734906745</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04717949350699853</v>
+        <v>0.03554910897088272</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2665961033.708774</v>
+        <v>3074539636.961927</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1649905984983941</v>
+        <v>0.1184054644586308</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0303624764468466</v>
+        <v>0.0275403411589493</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1570577686.81429</v>
+        <v>1692886746.827212</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1376795815828074</v>
+        <v>0.1122389445313877</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02493093185067338</v>
+        <v>0.02939449268699405</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5301231013.287477</v>
+        <v>3296264177.382225</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1167085371651093</v>
+        <v>0.1085719088984571</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03254539981276298</v>
+        <v>0.02177833295714935</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2274931961.962705</v>
+        <v>1716319117.330883</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1254046047742086</v>
+        <v>0.1570705364156636</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02137373534746408</v>
+        <v>0.02449217838844257</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3928774748.022778</v>
+        <v>3327732249.963673</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09009498693484774</v>
+        <v>0.09641794520005681</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04413048964773378</v>
+        <v>0.04846590143348814</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1348394129.960152</v>
+        <v>1750924455.143397</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1427397037027325</v>
+        <v>0.1677295218209306</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03718665072986098</v>
+        <v>0.02909189520099497</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4924419180.881769</v>
+        <v>4669766580.073889</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09017534940933722</v>
+        <v>0.1079552316896404</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03792556244241444</v>
+        <v>0.02440422683566298</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4053925920.249911</v>
+        <v>3684334329.761988</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1158257126184225</v>
+        <v>0.08975818736529065</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03047300309184649</v>
+        <v>0.02720647336708356</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4788881977.016353</v>
+        <v>5152134821.80912</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2162424810748028</v>
+        <v>0.2031157162789461</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02073340131962213</v>
+        <v>0.02025905005721868</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2009144797.113896</v>
+        <v>2052441485.315693</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1238854105314369</v>
+        <v>0.136161559012681</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03158535062250149</v>
+        <v>0.04011415420320423</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2068845224.587297</v>
+        <v>1637070273.521411</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08187496003875677</v>
+        <v>0.1176965406873287</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05023431168142223</v>
+        <v>0.04876553639169513</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3332587178.672599</v>
+        <v>2479238597.2809</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1544031315437839</v>
+        <v>0.1615188506321382</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03759614934202085</v>
+        <v>0.03578990858386704</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2366451129.065817</v>
+        <v>2788980106.858627</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1321779884554925</v>
+        <v>0.1134506879387597</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02268356853115462</v>
+        <v>0.02551037582544098</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1007172719.075427</v>
+        <v>934858067.2096275</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1867223066243849</v>
+        <v>0.1605035249675404</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03537726744854904</v>
+        <v>0.03092164135312472</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2277347771.398809</v>
+        <v>3028260626.840667</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1553591911958092</v>
+        <v>0.1546715350768563</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02687968886109716</v>
+        <v>0.0296557481789828</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3461673334.514057</v>
+        <v>3254356006.82097</v>
       </c>
       <c r="F89" t="n">
-        <v>0.159050245883139</v>
+        <v>0.1055961678986129</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02956657674232671</v>
+        <v>0.02752779614138457</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2136814559.266273</v>
+        <v>1882390021.200895</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1330612471217337</v>
+        <v>0.1290724286671117</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0482248590526411</v>
+        <v>0.03614591936508653</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1526794363.449228</v>
+        <v>1862683026.763695</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1731843728553633</v>
+        <v>0.1514899973613707</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03853497454720031</v>
+        <v>0.05743991098697068</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2594912954.592118</v>
+        <v>2923533023.378212</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07025903584353482</v>
+        <v>0.08362418357844649</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03341259132982174</v>
+        <v>0.03849901463817643</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4135191872.000326</v>
+        <v>3167978629.757498</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1104779395298837</v>
+        <v>0.1061855894293047</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04859779357467837</v>
+        <v>0.03583512327723975</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1622214306.147321</v>
+        <v>2350283447.477866</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1252889784458804</v>
+        <v>0.1420327174104032</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03215610929078204</v>
+        <v>0.02799259493882958</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2616625031.529249</v>
+        <v>3090945719.574409</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09796853820706272</v>
+        <v>0.08973644235861988</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04015746517506186</v>
+        <v>0.05246752903989616</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1964409663.458205</v>
+        <v>1648677750.017672</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1132947212839635</v>
+        <v>0.08600077967754137</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03812063962772876</v>
+        <v>0.03401274201095896</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4081737623.867504</v>
+        <v>4449787866.872349</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1184978406740547</v>
+        <v>0.1130612658059586</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02060235032683815</v>
+        <v>0.02786455950160649</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3006317783.6516</v>
+        <v>2843272194.800071</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1137527542426053</v>
+        <v>0.09167616618368517</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02392229185659575</v>
+        <v>0.02039288179312528</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3065373757.255627</v>
+        <v>2760318497.264767</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1404613014054461</v>
+        <v>0.09781480551149913</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03224296517047955</v>
+        <v>0.0338107632454816</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2966749744.400115</v>
+        <v>3088971665.754051</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1787145905761796</v>
+        <v>0.1733679244680633</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0252042994491873</v>
+        <v>0.0231865026470346</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2447643261.715168</v>
+        <v>3353323133.558354</v>
       </c>
       <c r="F101" t="n">
-        <v>0.191156961137956</v>
+        <v>0.178835657689923</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03622664307849794</v>
+        <v>0.03675995505431368</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_303.xlsx
+++ b/output/fit_clients/fit_round_303.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2329805431.083638</v>
+        <v>1984834451.87738</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1091628071221952</v>
+        <v>0.1052208956291428</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03601987400320453</v>
+        <v>0.04320498617737974</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1929570090.813042</v>
+        <v>2282573107.312182</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1170374508419172</v>
+        <v>0.1605827235755014</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03532175015359308</v>
+        <v>0.03489593518163309</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4091526178.359506</v>
+        <v>5066161536.930646</v>
       </c>
       <c r="F4" t="n">
-        <v>0.131048268484944</v>
+        <v>0.121348270010192</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03564457462235254</v>
+        <v>0.03489776445810273</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>159</v>
+      </c>
+      <c r="J4" t="n">
+        <v>303</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,16 +606,25 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3527540940.848609</v>
+        <v>2878708809.315071</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09702548297686339</v>
+        <v>0.07344297707498816</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03883343874056507</v>
+        <v>0.04866262292554926</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>124</v>
+      </c>
+      <c r="J5" t="n">
+        <v>302</v>
+      </c>
+      <c r="K5" t="n">
+        <v>59.99350256640403</v>
       </c>
     </row>
     <row r="6">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2696521235.750499</v>
+        <v>2526485250.618918</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1043493052206864</v>
+        <v>0.1488474326034382</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04699408496153809</v>
+        <v>0.04836984599272793</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3082001583.061292</v>
+        <v>2752747202.142928</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06579079429359462</v>
+        <v>0.0846931402192594</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04641228528351206</v>
+        <v>0.03551726525949048</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2646430329.71604</v>
+        <v>2750823533.989009</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1576734922525419</v>
+        <v>0.2201766691970247</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02134975823508868</v>
+        <v>0.02894317350536008</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>81</v>
+      </c>
+      <c r="J8" t="n">
+        <v>301</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2187697769.336875</v>
+        <v>2299923784.39914</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1540342428768024</v>
+        <v>0.1736848077725545</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02944462079275989</v>
+        <v>0.03056849516677741</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5022284607.104964</v>
+        <v>4374402731.995974</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1824951995348467</v>
+        <v>0.1444792926270706</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04201787725448258</v>
+        <v>0.05067643363031519</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>268</v>
+      </c>
+      <c r="J10" t="n">
+        <v>302</v>
+      </c>
+      <c r="K10" t="n">
+        <v>81.23052508293569</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4145527900.089573</v>
+        <v>4141745424.646055</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1408373650915681</v>
+        <v>0.1205978542189677</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04813986180448923</v>
+        <v>0.04154053796176846</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>121</v>
+      </c>
+      <c r="J11" t="n">
+        <v>303</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2464859521.081561</v>
+        <v>2003814171.711086</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1772144525473641</v>
+        <v>0.1685801424010888</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04604026060142418</v>
+        <v>0.04306444545012041</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>296</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3524410128.801493</v>
+        <v>3795098990.92286</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06253011422697226</v>
+        <v>0.094188317524409</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02334070031351964</v>
+        <v>0.02190110153702069</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>156</v>
+      </c>
+      <c r="J13" t="n">
+        <v>302</v>
+      </c>
+      <c r="K13" t="n">
+        <v>81.5628899654667</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2812834839.867084</v>
+        <v>2771945240.574906</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1731013543444005</v>
+        <v>0.1801683466456463</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03325458788321103</v>
+        <v>0.02836685989992106</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>63</v>
+      </c>
+      <c r="J14" t="n">
+        <v>298</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +962,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1149185016.651011</v>
+        <v>1746908612.90398</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0943519448123231</v>
+        <v>0.06845360967716166</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04434309480421845</v>
+        <v>0.04260941526203861</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2820470295.888151</v>
+        <v>2550746684.544787</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07652910810636047</v>
+        <v>0.08062950372231741</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03151557481598589</v>
+        <v>0.04127026037807398</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4180112578.425591</v>
+        <v>4076064213.353753</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1089445496086055</v>
+        <v>0.1553999657822085</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03807511978649804</v>
+        <v>0.04106213141575388</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>143</v>
+      </c>
+      <c r="J17" t="n">
+        <v>303</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3662879253.988405</v>
+        <v>3430988707.635964</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1381518936014657</v>
+        <v>0.1685733670264311</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03210531257926527</v>
+        <v>0.02295992102410093</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>76</v>
+      </c>
+      <c r="J18" t="n">
+        <v>298</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1099975866.592525</v>
+        <v>1367783891.446628</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1221402608129395</v>
+        <v>0.1359737241283178</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02469601450973445</v>
+        <v>0.02447622695327897</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1137,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1870863959.187776</v>
+        <v>1932328758.441101</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1606283653398543</v>
+        <v>0.1119527479110227</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03105971783848088</v>
+        <v>0.0237310774424769</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1933854817.116658</v>
+        <v>1683145124.985307</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08636611297923326</v>
+        <v>0.0897860600625443</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03908000143979697</v>
+        <v>0.03970299478931821</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,16 +1207,25 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3298366538.266074</v>
+        <v>3585082501.679323</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08740687309383589</v>
+        <v>0.09005839216856264</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05094624949202291</v>
+        <v>0.04444215100159837</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>83</v>
+      </c>
+      <c r="J22" t="n">
+        <v>302</v>
+      </c>
+      <c r="K22" t="n">
+        <v>76.94912754844407</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1268908947.821754</v>
+        <v>1057404715.367728</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1724631153164539</v>
+        <v>0.1416786386521867</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04680018684669574</v>
+        <v>0.03860555528508228</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1273,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2821529266.271883</v>
+        <v>3427624600.178799</v>
       </c>
       <c r="F24" t="n">
-        <v>0.127357455186808</v>
+        <v>0.1212200163264359</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0230266131790292</v>
+        <v>0.02286625886251754</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>89</v>
+      </c>
+      <c r="J24" t="n">
+        <v>302</v>
+      </c>
+      <c r="K24" t="n">
+        <v>70.2202206656045</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1134984097.204579</v>
+        <v>1245806210.821197</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07843914034394525</v>
+        <v>0.0850793422681556</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03067253929581826</v>
+        <v>0.02161757642585344</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1034377050.145054</v>
+        <v>1036319124.938347</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1099001180142291</v>
+        <v>0.09211101099224825</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0318145549375317</v>
+        <v>0.03901401625021242</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3487060644.575418</v>
+        <v>3773032403.136239</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1031523127357078</v>
+        <v>0.09584411736383762</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01699422300703519</v>
+        <v>0.02180384656744807</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>125</v>
+      </c>
+      <c r="J27" t="n">
+        <v>303</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,17 +1421,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3851507495.987765</v>
+        <v>2475565475.731255</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1208826871030366</v>
+        <v>0.1388534632452602</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04317122106479709</v>
+        <v>0.04850133955165752</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>63</v>
+      </c>
+      <c r="J28" t="n">
+        <v>301</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4641140844.869037</v>
+        <v>5085297777.201327</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1422777937300254</v>
+        <v>0.1180971433989091</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04654922884647225</v>
+        <v>0.03763298051080273</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>284</v>
+      </c>
+      <c r="J29" t="n">
+        <v>303</v>
+      </c>
+      <c r="K29" t="n">
+        <v>84.23475316073613</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2056507003.598266</v>
+        <v>2334188669.610399</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1115253400399353</v>
+        <v>0.1303493163348731</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03572489994423705</v>
+        <v>0.02622743515333472</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1528,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1376761504.407296</v>
+        <v>1066740381.382566</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08453220238067828</v>
+        <v>0.09246997036220195</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04055299474369801</v>
+        <v>0.04642679501745152</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1563,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1584826122.846764</v>
+        <v>1166948765.537944</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1025550494367787</v>
+        <v>0.1098233649337185</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02749049992295143</v>
+        <v>0.02545389720869263</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2371433738.478725</v>
+        <v>2275635429.819866</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1423672134683581</v>
+        <v>0.131022438790751</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04180337271372411</v>
+        <v>0.04492705751542546</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1268718199.512218</v>
+        <v>1018613994.652103</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08151640716245348</v>
+        <v>0.07349294494133407</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02140655934854947</v>
+        <v>0.0266318792478018</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1224518564.628987</v>
+        <v>1334713894.533718</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09905622687152883</v>
+        <v>0.07587665849481702</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03379406748991802</v>
+        <v>0.03553273273923058</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1703,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2964256906.93395</v>
+        <v>2613904499.658467</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1579524144519475</v>
+        <v>0.1210783356687775</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02157111253304556</v>
+        <v>0.02309776201705233</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2694797350.468124</v>
+        <v>2941063264.3775</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07697337242373163</v>
+        <v>0.07618577267818585</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02689401719460466</v>
+        <v>0.02607695601235344</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2143648649.158787</v>
+        <v>1848310247.469626</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1127512280458562</v>
+        <v>0.09102153745550802</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03441566472641829</v>
+        <v>0.03880580682961409</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1808,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2060445568.768502</v>
+        <v>1732349512.825275</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1366187291085298</v>
+        <v>0.1258020400449677</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03123446888718528</v>
+        <v>0.03134258882024886</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1152858371.548</v>
+        <v>1140159833.856522</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1542263807974005</v>
+        <v>0.1396139763792525</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04178267249110768</v>
+        <v>0.04145185358581778</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2091031116.20151</v>
+        <v>2704379709.388659</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1549514203086702</v>
+        <v>0.117000767055584</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02893613115483111</v>
+        <v>0.03208646019842095</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,16 +1913,25 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3679477339.561567</v>
+        <v>3057892346.169211</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1135148561526682</v>
+        <v>0.08110239756829943</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03051197461039351</v>
+        <v>0.02922238692580049</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>125</v>
+      </c>
+      <c r="J42" t="n">
+        <v>302</v>
+      </c>
+      <c r="K42" t="n">
+        <v>64.46995294555634</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1999751968.691417</v>
+        <v>2729710841.014858</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1539862467654605</v>
+        <v>0.2010079238837536</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0248428039320464</v>
+        <v>0.0233385522637487</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2265263255.642403</v>
+        <v>2127515786.161461</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0947765116858429</v>
+        <v>0.06432826015569874</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02688605755661794</v>
+        <v>0.03182831968863962</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2020,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2231998588.00687</v>
+        <v>1885928433.651475</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1709254373709246</v>
+        <v>0.1286345667694136</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03459999180325288</v>
+        <v>0.05586001049639663</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2049,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3465496810.685074</v>
+        <v>4651440320.791555</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1537724772352441</v>
+        <v>0.1195571233287355</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05424539618646904</v>
+        <v>0.044896975448617</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>179</v>
+      </c>
+      <c r="J46" t="n">
+        <v>303</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2084,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4804251992.268409</v>
+        <v>5134990829.335463</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1345929470399757</v>
+        <v>0.1334216538914714</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04768096566574986</v>
+        <v>0.03871228040363069</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>135</v>
+      </c>
+      <c r="J47" t="n">
+        <v>302</v>
+      </c>
+      <c r="K47" t="n">
+        <v>69.85303389465437</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2121,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3169122007.385667</v>
+        <v>2967273404.992474</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08456802429965039</v>
+        <v>0.08484257613953489</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02951243976122626</v>
+        <v>0.02928738510675169</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>151</v>
+      </c>
+      <c r="J48" t="n">
+        <v>302</v>
+      </c>
+      <c r="K48" t="n">
+        <v>57.61548731904637</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1318819061.886859</v>
+        <v>1812270339.892909</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1214328786159488</v>
+        <v>0.1478235244595608</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04059983742492991</v>
+        <v>0.02813443204977822</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2193,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2594639421.868741</v>
+        <v>2855886172.004268</v>
       </c>
       <c r="F50" t="n">
-        <v>0.107888351785849</v>
+        <v>0.1274799431176208</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04716357284865685</v>
+        <v>0.03330429138976843</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>96</v>
+      </c>
+      <c r="J50" t="n">
+        <v>300</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1326748807.621768</v>
+        <v>1114216084.143808</v>
       </c>
       <c r="F51" t="n">
-        <v>0.17593202224949</v>
+        <v>0.1862461898822284</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04571639081544612</v>
+        <v>0.05272793416211091</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2263,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3205667262.757495</v>
+        <v>5041599477.942327</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08846233744278473</v>
+        <v>0.1218353779833287</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04863082696735891</v>
+        <v>0.05139602713961383</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>186</v>
+      </c>
+      <c r="J52" t="n">
+        <v>302</v>
+      </c>
+      <c r="K52" t="n">
+        <v>79.34695463800564</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2300,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2987648875.369991</v>
+        <v>2622659682.202617</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1916821223562072</v>
+        <v>0.1784468783305611</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02499418629219843</v>
+        <v>0.02282784071189416</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>41</v>
+      </c>
+      <c r="J53" t="n">
+        <v>293</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2335,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3883057309.918242</v>
+        <v>3380577030.59089</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1269143068882715</v>
+        <v>0.1479761215981814</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04121406281336232</v>
+        <v>0.04030634309748404</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>159</v>
+      </c>
+      <c r="J54" t="n">
+        <v>302</v>
+      </c>
+      <c r="K54" t="n">
+        <v>69.74327401298197</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2372,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3111751492.694926</v>
+        <v>4901444352.327836</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1433480472288726</v>
+        <v>0.1845186313743344</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02538007583003076</v>
+        <v>0.02384541609980869</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>139</v>
+      </c>
+      <c r="J55" t="n">
+        <v>303</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1393820392.891763</v>
+        <v>1406138282.476266</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1103978525605516</v>
+        <v>0.1420179408333195</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05251918568492737</v>
+        <v>0.04278795060928375</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,16 +2448,25 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4190881510.601013</v>
+        <v>3084960213.196996</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1451003575995774</v>
+        <v>0.1794574349096873</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01867423808753141</v>
+        <v>0.01942986942734422</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>125</v>
+      </c>
+      <c r="J57" t="n">
+        <v>302</v>
+      </c>
+      <c r="K57" t="n">
+        <v>57.7203430008712</v>
       </c>
     </row>
     <row r="58">
@@ -2054,17 +2485,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1336784092.801578</v>
+        <v>1413876482.870937</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1716678350223346</v>
+        <v>0.1969653774478796</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02840697209579158</v>
+        <v>0.03941525948565898</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2514,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4545842717.50784</v>
+        <v>3935217919.617712</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08564978892454971</v>
+        <v>0.1063227653128521</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04870153905669138</v>
+        <v>0.03256557088553622</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>146</v>
+      </c>
+      <c r="J59" t="n">
+        <v>303</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2549,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3139480053.44894</v>
+        <v>3548060573.759262</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1440309397739332</v>
+        <v>0.1509778184797962</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03003761354586313</v>
+        <v>0.02935763818373598</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>49</v>
+      </c>
+      <c r="J60" t="n">
+        <v>303</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2590,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2457637313.529574</v>
+        <v>3085356633.119742</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1241957788327782</v>
+        <v>0.137167813900845</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02909276023706828</v>
+        <v>0.02249359451669257</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>9</v>
+      </c>
+      <c r="J61" t="n">
+        <v>281</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1907190761.473616</v>
+        <v>1932540005.922096</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1218136551439355</v>
+        <v>0.1750860980594688</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03051776971353787</v>
+        <v>0.04129623982499041</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2654,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5038264810.12209</v>
+        <v>5205147153.654208</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08633602272929909</v>
+        <v>0.07320972845540562</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03890121171232334</v>
+        <v>0.03556094623386762</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>147</v>
+      </c>
+      <c r="J63" t="n">
+        <v>303</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2689,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5133539627.258622</v>
+        <v>4102576871.323703</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1359748963800147</v>
+        <v>0.1400511425493145</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02927719865072171</v>
+        <v>0.02383119459536383</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>149</v>
+      </c>
+      <c r="J64" t="n">
+        <v>302</v>
+      </c>
+      <c r="K64" t="n">
+        <v>79.87791505748159</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2726,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3867821010.175943</v>
+        <v>5639641419.812508</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1724289645100922</v>
+        <v>0.116751001520681</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02490760172142329</v>
+        <v>0.02961399989146353</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>241</v>
+      </c>
+      <c r="J65" t="n">
+        <v>303</v>
+      </c>
+      <c r="K65" t="n">
+        <v>82.81326974321264</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2763,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3949920187.635527</v>
+        <v>5168372496.541818</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1512809137563982</v>
+        <v>0.1403458561607255</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04193564593737936</v>
+        <v>0.04321193877694408</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>149</v>
+      </c>
+      <c r="J66" t="n">
+        <v>303</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2557493894.699233</v>
+        <v>3192988494.98329</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09789484882865729</v>
+        <v>0.07203821027069364</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0429796200620683</v>
+        <v>0.03841812177655356</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>9</v>
+      </c>
+      <c r="J67" t="n">
+        <v>296</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2833,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5868012650.718567</v>
+        <v>5103899222.723233</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1175294620507356</v>
+        <v>0.1181905809887469</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04274098155488808</v>
+        <v>0.04183190565696737</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>161</v>
+      </c>
+      <c r="J68" t="n">
+        <v>303</v>
+      </c>
+      <c r="K68" t="n">
+        <v>82.7488211232117</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2337560900.80672</v>
+        <v>1809412770.16264</v>
       </c>
       <c r="F69" t="n">
-        <v>0.114543178706081</v>
+        <v>0.1393634048747939</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04868991380836009</v>
+        <v>0.04100339701336589</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2905,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3531177120.180459</v>
+        <v>3678441765.128503</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06549556874364783</v>
+        <v>0.08217552867363774</v>
       </c>
       <c r="G70" t="n">
-        <v>0.040720625238602</v>
+        <v>0.0301295082239846</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>45</v>
+      </c>
+      <c r="J70" t="n">
+        <v>303</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2940,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4319754854.280964</v>
+        <v>4232367142.800541</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1513563979893515</v>
+        <v>0.139259776570111</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02652797056478339</v>
+        <v>0.02824531849757615</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>226</v>
+      </c>
+      <c r="J71" t="n">
+        <v>303</v>
+      </c>
+      <c r="K71" t="n">
+        <v>82.57734536407722</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2983,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1821972003.907172</v>
+        <v>1577137342.985691</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08517000299052997</v>
+        <v>0.07903266492209969</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04310317583022196</v>
+        <v>0.04836820734101503</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3012,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3470253093.083586</v>
+        <v>2382606823.4529</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1097325734906745</v>
+        <v>0.08709805477274771</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03554910897088272</v>
+        <v>0.03739906891008264</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>20</v>
+      </c>
+      <c r="J73" t="n">
+        <v>295</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3074539636.961927</v>
+        <v>2554683977.509308</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1184054644586308</v>
+        <v>0.1442911532809411</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0275403411589493</v>
+        <v>0.03027948067435743</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>81</v>
+      </c>
+      <c r="J74" t="n">
+        <v>298</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1692886746.827212</v>
+        <v>2507216129.549963</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1122389445313877</v>
+        <v>0.1323724797206874</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02939449268699405</v>
+        <v>0.03567006198601664</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3117,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3296264177.382225</v>
+        <v>3913698508.101758</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1085719088984571</v>
+        <v>0.1067593408241685</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02177833295714935</v>
+        <v>0.02186172474673944</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>142</v>
+      </c>
+      <c r="J76" t="n">
+        <v>303</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1716319117.330883</v>
+        <v>1671943372.572702</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1570705364156636</v>
+        <v>0.1194759867406828</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02449217838844257</v>
+        <v>0.02550029940005918</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,17 +3193,24 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3327732249.963673</v>
+        <v>4806711710.886001</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09641794520005681</v>
+        <v>0.0881128930260953</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04846590143348814</v>
+        <v>0.04723343154084769</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>150</v>
+      </c>
+      <c r="J78" t="n">
+        <v>303</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1750924455.143397</v>
+        <v>1191652009.753924</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1677295218209306</v>
+        <v>0.128022878402793</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02909189520099497</v>
+        <v>0.03387914494152829</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3257,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4669766580.073889</v>
+        <v>3387743533.967592</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1079552316896404</v>
+        <v>0.08492107585053209</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02440422683566298</v>
+        <v>0.02407855853469008</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>148</v>
+      </c>
+      <c r="J80" t="n">
+        <v>302</v>
+      </c>
+      <c r="K80" t="n">
+        <v>51.7885265652932</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3684334329.761988</v>
+        <v>4215643958.724084</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08975818736529065</v>
+        <v>0.1318978057098852</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02720647336708356</v>
+        <v>0.02327120159378778</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>139</v>
+      </c>
+      <c r="J81" t="n">
+        <v>303</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,16 +3335,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5152134821.80912</v>
+        <v>3690864148.891073</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2031157162789461</v>
+        <v>0.2166426237398037</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02025905005721868</v>
+        <v>0.01843314955314091</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>221</v>
+      </c>
+      <c r="J82" t="n">
+        <v>302</v>
+      </c>
+      <c r="K82" t="n">
+        <v>81.45812527621635</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2052441485.315693</v>
+        <v>1810177703.749445</v>
       </c>
       <c r="F83" t="n">
-        <v>0.136161559012681</v>
+        <v>0.1494486836893395</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04011415420320423</v>
+        <v>0.03730314117193843</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3407,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1637070273.521411</v>
+        <v>1733765359.885379</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1176965406873287</v>
+        <v>0.09240868842665291</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04876553639169513</v>
+        <v>0.03820397922514031</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2479238597.2809</v>
+        <v>2974790174.55013</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1615188506321382</v>
+        <v>0.1220622132489783</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03578990858386704</v>
+        <v>0.044481736670023</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>40</v>
+      </c>
+      <c r="J85" t="n">
+        <v>298</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2788980106.858627</v>
+        <v>2220411710.197308</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1134506879387597</v>
+        <v>0.1138129156626479</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02551037582544098</v>
+        <v>0.0247323937324791</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>934858067.2096275</v>
+        <v>1453776605.385361</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1605035249675404</v>
+        <v>0.1248107341920802</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03092164135312472</v>
+        <v>0.0279045874308833</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3547,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3028260626.840667</v>
+        <v>3068229983.757906</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1546715350768563</v>
+        <v>0.173901344210585</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0296557481789828</v>
+        <v>0.03808902034474648</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>43</v>
+      </c>
+      <c r="J88" t="n">
+        <v>300</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3582,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3254356006.82097</v>
+        <v>2436843871.716119</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1055961678986129</v>
+        <v>0.132743925269568</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02752779614138457</v>
+        <v>0.0367654746941504</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>22</v>
+      </c>
+      <c r="J89" t="n">
+        <v>295</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1882390021.200895</v>
+        <v>1358431147.284203</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1290724286671117</v>
+        <v>0.09273618599940076</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03614591936508653</v>
+        <v>0.03885383378353574</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1862683026.763695</v>
+        <v>1997834943.344607</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1514899973613707</v>
+        <v>0.120418531952386</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05743991098697068</v>
+        <v>0.05395850295016941</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2923533023.378212</v>
+        <v>2024729525.704169</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08362418357844649</v>
+        <v>0.07030544052768438</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03849901463817643</v>
+        <v>0.0440349429654633</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,17 +3722,24 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3167978629.757498</v>
+        <v>3461568198.592182</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1061855894293047</v>
+        <v>0.09321845000639793</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03583512327723975</v>
+        <v>0.05341400986519449</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>135</v>
+      </c>
+      <c r="J93" t="n">
+        <v>300</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3062,17 +3757,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2350283447.477866</v>
+        <v>2476498827.43843</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1420327174104032</v>
+        <v>0.1579625219675198</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02799259493882958</v>
+        <v>0.03472686362059435</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3090945719.574409</v>
+        <v>2858436114.051434</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08973644235861988</v>
+        <v>0.08728350012764742</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05246752903989616</v>
+        <v>0.03276500388407975</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1648677750.017672</v>
+        <v>1836817752.014658</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08600077967754137</v>
+        <v>0.09630723002568901</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03401274201095896</v>
+        <v>0.0299458752676137</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3862,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4449787866.872349</v>
+        <v>3637199199.645484</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1130612658059586</v>
+        <v>0.1760019859313945</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02786455950160649</v>
+        <v>0.02514532874940633</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>152</v>
+      </c>
+      <c r="J97" t="n">
+        <v>302</v>
+      </c>
+      <c r="K97" t="n">
+        <v>80.706170024797</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2843272194.800071</v>
+        <v>3635912874.316589</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09167616618368517</v>
+        <v>0.1018162598152965</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02039288179312528</v>
+        <v>0.0286815544552466</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>74</v>
+      </c>
+      <c r="J98" t="n">
+        <v>303</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2760318497.264767</v>
+        <v>2479105124.853882</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09781480551149913</v>
+        <v>0.1266628058665102</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0338107632454816</v>
+        <v>0.03534850481945999</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3088971665.754051</v>
+        <v>3693991371.312298</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1733679244680633</v>
+        <v>0.1741712455027109</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0231865026470346</v>
+        <v>0.02785956631238302</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>131</v>
+      </c>
+      <c r="J100" t="n">
+        <v>303</v>
+      </c>
+      <c r="K100" t="n">
+        <v>84.4226013077356</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3353323133.558354</v>
+        <v>3538250029.016083</v>
       </c>
       <c r="F101" t="n">
-        <v>0.178835657689923</v>
+        <v>0.1511873261480712</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03675995505431368</v>
+        <v>0.04350922126851112</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>28</v>
+      </c>
+      <c r="J101" t="n">
+        <v>301</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
